--- a/10.xlsx
+++ b/10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="690" yWindow="4695" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -462,10 +462,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="11.25"/>
@@ -1210,6 +1210,36 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Брошюровка ( до 150 стр.)</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Переплет</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Бумага рулонная инженерная А0+ (45м)</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Инж А0+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10.xlsx
+++ b/10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="5535" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -82,9 +82,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -96,6 +93,9 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +462,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="11.25"/>
@@ -474,12 +474,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Номенклатура</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
@@ -491,12 +491,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Диски DVD-R</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>185</v>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Диски Кармашки тонкие</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Ватман А1</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>4200</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Лазер Magno А3 300 гр Глянец  / Сатин</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>2700</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Лазер Magno А3 300 гр Глянец  / Сатин</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>1300</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Фотобумага KODAK A4/50/260г/м  Photo Ultra Satin  </t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>200</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -581,12 +581,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Фотобумага KODAK A4/50/260г/м  Photo Ultra Satin  </t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>585</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Лазер Master А3 90 гр Самоклейка Глянец</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>6720</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Фотобумага X-GREE A6/50/260г микропористая с блеском E7260-10*15-50</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>70</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Лазер ColorCopy А3 100 гр Мелованная</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>765</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Лазер Magno А3 90 гр Глянец / Сатин</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>440</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Папка-файл мультифора 90 микрон</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>810</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Рамка 30*40 картин. багет</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="4" t="n">
         <v>2200</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Лазер Magno А3 250 гр Глянец / Сатин</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="4" t="n">
         <v>3200</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Лазер Magno А3 250 гр Глянец / Сатин</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>430</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Фотобумага X-GREE A6/100/240г Глянцевая EVERYDAY  E7240-10*15-100</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>720</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Фотобумага X-GREE A6/100/230г  Глянцевая Премиум 53W230-10*15</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>100</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Лазер Magno А3 115 гр Глянец / Сатин</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="4" t="n">
         <v>1560</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Бумага рулонная инженерная  A1 (45м)</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>720</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Бумага рулонная инженерная  A1 (45м)</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="4" t="n">
         <v>1440</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Ламинат А4 100 мк. POUCHES</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>440</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Пружинка Пластик 22 мм синяя </t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>250</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Пружинка Металл 14,3 мм черная</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>250</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Обложка IBIND A4 150 микрон прозрачные                                          </t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>150</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -851,12 +851,12 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Сканирование А4 </t>
         </is>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="4" t="n">
         <v>1100</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Услуга 50</t>
         </is>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="4" t="n">
         <v>4600</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Распечатка А4 Ч/Б</t>
         </is>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="4" t="n">
         <v>5400</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Копия А4 Ч/Б</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>450</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Отправка на WhatsApp</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>200</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Распечатка А4 Цвет</t>
         </is>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="4" t="n">
         <v>3260</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Распечатка А3 ЛАЗЕР</t>
         </is>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="4" t="n">
         <v>2420</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Распечатка А4 Цвет</t>
         </is>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="4" t="n">
         <v>6160</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Распечатка А4 Цвет</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>750</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Сканирование А2</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>750</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Распечатка А4 Цвет</t>
         </is>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="4" t="n">
         <v>2680</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Распечатка А4 Цвет</t>
         </is>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="4" t="n">
         <v>9985</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Холст А0</t>
         </is>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="4" t="n">
         <v>5500</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Подрамник А1</t>
         </is>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="4" t="n">
         <v>2380</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Крючок на подрамник</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>50</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Распечатка А4 Цвет</t>
         </is>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>ывацукуц</t>
         </is>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>ывацуfgfr4</t>
         </is>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>Обложка(2) твердый переплет Бордо книга</t>
         </is>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>Канал твердый переплет 10мм Бордо</t>
         </is>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B45" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>Фольгирование А4 1 шт</t>
         </is>
       </c>
-      <c r="B46" s="5" t="n">
+      <c r="B46" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>Обложка(2) твердый переплет Бордо книга</t>
         </is>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>Канал твердый переплет 13мм Бордо 217мм</t>
         </is>
       </c>
-      <c r="B48" s="5" t="n">
+      <c r="B48" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>Фото на документы 3*4 1шт (200 тг)</t>
         </is>
       </c>
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>Брошюровка ( до 150 стр.)</t>
         </is>
       </c>
-      <c r="B50" s="5" t="n">
+      <c r="B50" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -1226,17 +1226,47 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>Бумага рулонная инженерная А0+ (45м)</t>
         </is>
       </c>
-      <c r="B51" s="5" t="n">
+      <c r="B51" s="4" t="n">
         <v>1785</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>Инж А0+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Распечатка А4 Ч/Б ЛАЗЕР</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Распечатка А4 Ч/Б ЛАЗЕР</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Распечатка А4 Цвет ЛАЗЕР</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Распечатка А4 Цвет ЛАЗЕР</t>
         </is>
       </c>
     </row>
